--- a/figures/source_data/source_Fig.2c.xlsx
+++ b/figures/source_data/source_Fig.2c.xlsx
@@ -1,56 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisabettacacace/Documents/EMBL/Nx/Nx_paper/source_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FC8CBE-3BB7-C545-9521-20D69F238D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="-21100" windowWidth="28700" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>Time after infection (h)</t>
-  </si>
-  <si>
-    <t>replicate</t>
-  </si>
-  <si>
-    <t>survival (%)</t>
-  </si>
-  <si>
-    <t>solvent_control</t>
-  </si>
-  <si>
-    <t>0.1 µg/ml CT</t>
-  </si>
-  <si>
-    <t>0.1 µg/ml nitroxoline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 µg/mL nitroxoline </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -184,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,923 +350,1182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Time after infection (h)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>replicate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>survival (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B2">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B3">
         <v>24</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
-      <c r="C8">
-        <v>3</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B9">
         <v>24</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D10">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>2</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D11">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>5</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D13">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D14">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B15">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D15">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B16">
         <v>24</v>
       </c>
-      <c r="C16">
-        <v>3</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>4</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B18">
         <v>48</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>4</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B19">
         <v>48</v>
       </c>
-      <c r="C19">
-        <v>2</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>4</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B20">
         <v>48</v>
       </c>
-      <c r="C20">
-        <v>3</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B21">
         <v>48</v>
       </c>
-      <c r="C21">
-        <v>4</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B22">
         <v>48</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D22">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B23">
         <v>48</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D23">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>6</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B24">
         <v>48</v>
       </c>
-      <c r="C24">
-        <v>3</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>6</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B25">
         <v>48</v>
       </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B26">
         <v>48</v>
       </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D26">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>5</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B27">
         <v>48</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D27">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B28">
         <v>48</v>
       </c>
-      <c r="C28">
-        <v>3</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B29">
         <v>48</v>
       </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>7</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B30">
         <v>48</v>
       </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D30">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B31">
         <v>48</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D31">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>7</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B32">
         <v>48</v>
       </c>
-      <c r="C32">
-        <v>3</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D32">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>7</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B33">
         <v>48</v>
       </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D33">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>4</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B34">
         <v>72</v>
       </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D34">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>4</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B35">
         <v>72</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>4</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B36">
         <v>72</v>
       </c>
-      <c r="C36">
-        <v>3</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D36">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>4</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B37">
         <v>72</v>
       </c>
-      <c r="C37">
-        <v>4</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>6</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B38">
         <v>72</v>
       </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>6</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B39">
         <v>72</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D39">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B40">
         <v>72</v>
       </c>
-      <c r="C40">
-        <v>3</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B41">
         <v>72</v>
       </c>
-      <c r="C41">
-        <v>4</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D41">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>5</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B42">
         <v>72</v>
       </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D42">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>5</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B43">
         <v>72</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D43">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>5</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B44">
         <v>72</v>
       </c>
-      <c r="C44">
-        <v>3</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>5</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B45">
         <v>72</v>
       </c>
-      <c r="C45">
-        <v>4</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>7</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B46">
         <v>72</v>
       </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D46">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>7</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B47">
         <v>72</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D47">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B48">
         <v>72</v>
       </c>
-      <c r="C48">
-        <v>3</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>7</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B49">
         <v>72</v>
       </c>
-      <c r="C49">
-        <v>4</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D49">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>4</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>4</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51">
-        <v>2</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D51">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>4</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D52">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>4</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NaOAc</t>
+        </is>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53">
-        <v>4</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D53">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>6</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D54">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>6</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="C55">
-        <v>2</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D55">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>6</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>6</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml Nx</t>
+        </is>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-      <c r="C57">
-        <v>4</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>5</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>5</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-      <c r="C59">
-        <v>2</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D59">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>5</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-      <c r="C60">
-        <v>3</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D60">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>5</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-      <c r="C61">
-        <v>4</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D61">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>7</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>x06_07</t>
+        </is>
       </c>
       <c r="D62">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>7</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-      <c r="C63">
-        <v>2</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>x07_07</t>
+        </is>
       </c>
       <c r="D63">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>7</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-      <c r="C64">
-        <v>3</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>x08_10</t>
+        </is>
       </c>
       <c r="D64">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>7</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0,1 µg/mL nx + 0,1 µg/ml CT</t>
+        </is>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-      <c r="C65">
-        <v>4</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>x10_10</t>
+        </is>
       </c>
       <c r="D65">
         <v>100</v>
